--- a/USA/state/data/model_report/t2m_mean_1982_2013_DIC_values.xlsx
+++ b/USA/state/data/model_report/t2m_mean_1982_2013_DIC_values.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4740" yWindow="-14760" windowWidth="28720" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="8640" yWindow="-23080" windowWidth="28720" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -408,7 +408,7 @@
   <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="91" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -501,7 +501,9 @@
       <c r="I4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="3"/>
+      <c r="J4" s="3">
+        <v>91192.639999999999</v>
+      </c>
       <c r="M4" t="s">
         <v>5</v>
       </c>
@@ -558,7 +560,9 @@
       <c r="I6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="3"/>
+      <c r="J6" s="3">
+        <v>71322.58</v>
+      </c>
       <c r="K6" s="3"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -614,7 +618,9 @@
       <c r="I8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J8" s="4"/>
+      <c r="J8" s="4">
+        <v>84903.43</v>
+      </c>
       <c r="K8" s="3"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">

--- a/USA/state/data/model_report/t2m_mean_1982_2013_DIC_values.xlsx
+++ b/USA/state/data/model_report/t2m_mean_1982_2013_DIC_values.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28720" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -412,7 +412,7 @@
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="91" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
